--- a/biology/Zoologie/Corealithus_nigerus/Corealithus_nigerus.xlsx
+++ b/biology/Zoologie/Corealithus_nigerus/Corealithus_nigerus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corealithus nigerus est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corealithus nigerus est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Chine[1]. Elle se rencontre au Hunan, au Zhejiang et au Anhui[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Chine. Elle se rencontre au Hunan, au Zhejiang et au Anhui,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 2,65 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 2,65 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Phrurolithus nigerus par Yin en 2012. Elle est placée dans le genre Otacilia par Zamani et Marusik en 2020[4] puis dans le genre Corealithus par Mu et Zhang en 2023[5].
-Phrurolithus subnigerus[3] a été placée en synonymie par Mu et Zhang en 2023[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Phrurolithus nigerus par Yin en 2012. Elle est placée dans le genre Otacilia par Zamani et Marusik en 2020 puis dans le genre Corealithus par Mu et Zhang en 2023.
+Phrurolithus subnigerus a été placée en synonymie par Mu et Zhang en 2023.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Yin, Peng, Yan, Bao, Xu, Tang, Zhou &amp; Liu, 2012 : Fauna Hunan: Araneae in Hunan, China. Hunan Science and Technology Press, Changsha, p. 1-1590.</t>
         </is>
